--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -43,10 +43,28 @@
     <t>DropPer</t>
   </si>
   <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>ミイラ</t>
+    <t>EnemyType</t>
+  </si>
+  <si>
+    <t>キラーアント</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>グリーンジェル</t>
+  </si>
+  <si>
+    <t>ブルージェル</t>
+  </si>
+  <si>
+    <t>フールフロッグ</t>
+  </si>
+  <si>
+    <t>えんさのちょう</t>
+  </si>
+  <si>
+    <t>フライリザード</t>
   </si>
 </sst>
 </file>
@@ -132,13 +150,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>5.0</v>
@@ -150,7 +171,7 @@
         <v>5.0</v>
       </c>
       <c r="F2" s="1">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="G2" s="1">
         <v>20.0</v>
@@ -162,7 +183,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -170,34 +194,182 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="1">
         <v>7.0</v>
       </c>
-      <c r="E3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J5" s="1">
         <v>30.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20.0</v>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="K2:K1000">
+      <formula1>"Monster,Object"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -242,16 +242,16 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0056818181818"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="18.9431818181818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.8068181818182"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2613636363636"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="18.9431818181818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5625"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="20.8977272727273"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.3579545454545"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.1193181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="20.8977272727273"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>12</v>
@@ -633,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>12</v>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>12</v>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>12</v>
@@ -726,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>60</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>50</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -343,7 +343,7 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -483,7 +483,7 @@
         <v>15.0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I6" s="2">
         <v>4.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -343,7 +343,7 @@
         <v>10.0</v>
       </c>
       <c r="H2" s="1">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -483,7 +483,7 @@
         <v>15.0</v>
       </c>
       <c r="H6" s="2">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" s="2">
         <v>4.0</v>
@@ -775,7 +775,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="H14" s="1">
         <v>2.0</v>
@@ -784,7 +784,7 @@
         <v>12.0</v>
       </c>
       <c r="J14" s="1">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>12</v>
@@ -854,7 +854,7 @@
         <v>14.0</v>
       </c>
       <c r="J16" s="1">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>12</v>
@@ -871,7 +871,7 @@
         <v>20.0</v>
       </c>
       <c r="D17" s="2">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E17" s="2">
         <v>20.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -229,7 +229,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,6 +266,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -769,7 +779,7 @@
         <v>18.0</v>
       </c>
       <c r="E14" s="1">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="F14" s="1">
         <v>10.0</v>
@@ -810,7 +820,7 @@
         <v>50.0</v>
       </c>
       <c r="G15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H15" s="1">
         <v>3.0</v>
@@ -839,7 +849,7 @@
         <v>25.0</v>
       </c>
       <c r="E16" s="1">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="F16" s="1">
         <v>10.0</v>
@@ -871,10 +881,10 @@
         <v>20.0</v>
       </c>
       <c r="D17" s="2">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="E17" s="2">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="F17" s="2">
         <v>25.0</v>
@@ -1381,39 +1391,54 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>29.0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>30.0</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>34.0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>29.0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>10.0</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>40.0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>8.0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>29.0</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>30.0</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="1">

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -934,13 +934,13 @@
         <v>24.0</v>
       </c>
       <c r="E18" s="1">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="F18" s="1">
         <v>20.0</v>
       </c>
       <c r="G18" s="1">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="H18" s="1">
         <v>5.0</v>
@@ -969,13 +969,13 @@
         <v>25.0</v>
       </c>
       <c r="E19" s="1">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" s="1">
         <v>22.0</v>
       </c>
       <c r="G19" s="1">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="H19" s="1">
         <v>5.0</v>
@@ -1004,7 +1004,7 @@
         <v>24.0</v>
       </c>
       <c r="E20" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" s="1">
         <v>30.0</v>
@@ -1039,13 +1039,13 @@
         <v>27.0</v>
       </c>
       <c r="E21" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F21" s="1">
         <v>24.0</v>
       </c>
       <c r="G21" s="1">
-        <v>32.0</v>
+        <v>43.0</v>
       </c>
       <c r="H21" s="1">
         <v>5.0</v>
@@ -1109,13 +1109,13 @@
         <v>38.0</v>
       </c>
       <c r="E23" s="1">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="F23" s="1">
         <v>25.0</v>
       </c>
       <c r="G23" s="1">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="H23" s="1">
         <v>6.0</v>
@@ -1144,13 +1144,13 @@
         <v>38.0</v>
       </c>
       <c r="E24" s="1">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="F24" s="1">
         <v>28.0</v>
       </c>
       <c r="G24" s="1">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="H24" s="1">
         <v>6.0</v>
@@ -1179,13 +1179,13 @@
         <v>28.0</v>
       </c>
       <c r="E25" s="1">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="F25" s="1">
         <v>32.0</v>
       </c>
       <c r="G25" s="1">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="H25" s="1">
         <v>6.0</v>
@@ -1214,13 +1214,13 @@
         <v>65.0</v>
       </c>
       <c r="E26" s="2">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="F26" s="2">
         <v>15.0</v>
       </c>
       <c r="G26" s="2">
-        <v>60.0</v>
+        <v>82.0</v>
       </c>
       <c r="H26" s="2">
         <v>7.0</v>
@@ -1264,13 +1264,13 @@
         <v>35.0</v>
       </c>
       <c r="E27" s="1">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" s="1">
         <v>10.0</v>
       </c>
       <c r="G27" s="1">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="H27" s="1">
         <v>8.0</v>
@@ -1299,13 +1299,13 @@
         <v>34.0</v>
       </c>
       <c r="E28" s="1">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="F28" s="1">
         <v>10.0</v>
       </c>
       <c r="G28" s="1">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="H28" s="1">
         <v>8.0</v>
@@ -1334,13 +1334,13 @@
         <v>33.0</v>
       </c>
       <c r="E29" s="1">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="F29" s="1">
         <v>12.0</v>
       </c>
       <c r="G29" s="1">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="H29" s="1">
         <v>8.0</v>
@@ -1369,13 +1369,13 @@
         <v>35.0</v>
       </c>
       <c r="E30" s="1">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="F30" s="1">
         <v>10.0</v>
       </c>
       <c r="G30" s="1">
-        <v>36.0</v>
+        <v>65.0</v>
       </c>
       <c r="H30" s="1">
         <v>8.0</v>
@@ -1404,13 +1404,13 @@
         <v>34.0</v>
       </c>
       <c r="E31" s="4">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="F31" s="4">
         <v>10.0</v>
       </c>
       <c r="G31" s="4">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="H31" s="4">
         <v>8.0</v>
@@ -1454,13 +1454,13 @@
         <v>55.0</v>
       </c>
       <c r="E32" s="1">
-        <v>38.0</v>
+        <v>11.0</v>
       </c>
       <c r="F32" s="1">
         <v>35.0</v>
       </c>
       <c r="G32" s="1">
-        <v>55.0</v>
+        <v>67.0</v>
       </c>
       <c r="H32" s="1">
         <v>9.0</v>
@@ -1489,13 +1489,13 @@
         <v>54.0</v>
       </c>
       <c r="E33" s="1">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="F33" s="1">
         <v>12.0</v>
       </c>
       <c r="G33" s="1">
-        <v>60.0</v>
+        <v>89.0</v>
       </c>
       <c r="H33" s="1">
         <v>9.0</v>
@@ -1524,13 +1524,13 @@
         <v>60.0</v>
       </c>
       <c r="E34" s="1">
-        <v>40.0</v>
+        <v>16.0</v>
       </c>
       <c r="F34" s="1">
         <v>10.0</v>
       </c>
       <c r="G34" s="1">
-        <v>59.0</v>
+        <v>76.0</v>
       </c>
       <c r="H34" s="1">
         <v>9.0</v>
@@ -1559,13 +1559,13 @@
         <v>65.0</v>
       </c>
       <c r="E35" s="1">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="F35" s="1">
         <v>15.0</v>
       </c>
       <c r="G35" s="1">
-        <v>62.0</v>
+        <v>98.0</v>
       </c>
       <c r="H35" s="1">
         <v>9.0</v>
@@ -1594,13 +1594,13 @@
         <v>70.0</v>
       </c>
       <c r="E36" s="1">
-        <v>35.0</v>
+        <v>8.0</v>
       </c>
       <c r="F36" s="1">
         <v>20.0</v>
       </c>
       <c r="G36" s="1">
-        <v>65.0</v>
+        <v>102.0</v>
       </c>
       <c r="H36" s="1">
         <v>9.0</v>
@@ -1629,13 +1629,13 @@
         <v>75.0</v>
       </c>
       <c r="E37" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="F37" s="1">
         <v>22.0</v>
       </c>
       <c r="G37" s="1">
-        <v>68.0</v>
+        <v>113.0</v>
       </c>
       <c r="H37" s="1">
         <v>9.0</v>
@@ -1699,13 +1699,13 @@
         <v>70.0</v>
       </c>
       <c r="E39" s="1">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="F39" s="1">
         <v>20.0</v>
       </c>
       <c r="G39" s="1">
-        <v>70.0</v>
+        <v>115.0</v>
       </c>
       <c r="H39" s="1">
         <v>10.0</v>
@@ -1734,13 +1734,13 @@
         <v>77.0</v>
       </c>
       <c r="E40" s="1">
-        <v>50.0</v>
+        <v>13.0</v>
       </c>
       <c r="F40" s="1">
         <v>18.0</v>
       </c>
       <c r="G40" s="1">
-        <v>77.0</v>
+        <v>125.0</v>
       </c>
       <c r="H40" s="1">
         <v>10.0</v>
@@ -1769,13 +1769,13 @@
         <v>60.0</v>
       </c>
       <c r="E41" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="F41" s="1">
         <v>10.0</v>
       </c>
       <c r="G41" s="1">
-        <v>86.0</v>
+        <v>110.0</v>
       </c>
       <c r="H41" s="1">
         <v>10.0</v>
@@ -1804,7 +1804,7 @@
         <v>80.0</v>
       </c>
       <c r="E42" s="1">
-        <v>55.0</v>
+        <v>15.0</v>
       </c>
       <c r="F42" s="1">
         <v>10.0</v>
@@ -1839,7 +1839,7 @@
         <v>82.0</v>
       </c>
       <c r="E43" s="1">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="F43" s="1">
         <v>15.0</v>
@@ -1874,13 +1874,13 @@
         <v>95.0</v>
       </c>
       <c r="E44" s="1">
-        <v>60.0</v>
+        <v>3.0</v>
       </c>
       <c r="F44" s="1">
         <v>25.0</v>
       </c>
       <c r="G44" s="1">
-        <v>102.0</v>
+        <v>90.0</v>
       </c>
       <c r="H44" s="1">
         <v>11.0</v>
@@ -1909,13 +1909,13 @@
         <v>104.0</v>
       </c>
       <c r="E45" s="1">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="F45" s="1">
         <v>20.0</v>
       </c>
       <c r="G45" s="1">
-        <v>105.0</v>
+        <v>118.0</v>
       </c>
       <c r="H45" s="1">
         <v>11.0</v>
@@ -1944,7 +1944,7 @@
         <v>99.0</v>
       </c>
       <c r="E46" s="1">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="F46" s="1">
         <v>28.0</v>
@@ -1985,7 +1985,7 @@
         <v>95.0</v>
       </c>
       <c r="G47" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" s="1">
         <v>12.0</v>
@@ -2049,13 +2049,13 @@
         <v>115.0</v>
       </c>
       <c r="E49" s="1">
-        <v>65.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" s="1">
         <v>0.0</v>
       </c>
       <c r="G49" s="1">
-        <v>94.0</v>
+        <v>150.0</v>
       </c>
       <c r="H49" s="1">
         <v>12.0</v>
@@ -2084,13 +2084,13 @@
         <v>100.0</v>
       </c>
       <c r="E50" s="1">
-        <v>40.0</v>
+        <v>2.0</v>
       </c>
       <c r="F50" s="1">
         <v>0.0</v>
       </c>
       <c r="G50" s="1">
-        <v>115.0</v>
+        <v>151.0</v>
       </c>
       <c r="H50" s="1">
         <v>12.0</v>
@@ -2119,13 +2119,13 @@
         <v>123.0</v>
       </c>
       <c r="E51" s="1">
-        <v>70.0</v>
+        <v>3.0</v>
       </c>
       <c r="F51" s="1">
         <v>0.0</v>
       </c>
       <c r="G51" s="1">
-        <v>130.0</v>
+        <v>155.0</v>
       </c>
       <c r="H51" s="1">
         <v>13.0</v>
@@ -2154,13 +2154,13 @@
         <v>130.0</v>
       </c>
       <c r="E52" s="1">
-        <v>100.0</v>
+        <v>17.0</v>
       </c>
       <c r="F52" s="1">
         <v>10.0</v>
       </c>
       <c r="G52" s="1">
-        <v>155.0</v>
+        <v>189.0</v>
       </c>
       <c r="H52" s="1">
         <v>13.0</v>
@@ -2189,13 +2189,13 @@
         <v>150.0</v>
       </c>
       <c r="E53" s="2">
-        <v>140.0</v>
+        <v>20.0</v>
       </c>
       <c r="F53" s="2">
         <v>25.0</v>
       </c>
       <c r="G53" s="2">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="H53" s="2">
         <v>14.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -934,13 +934,13 @@
         <v>24.0</v>
       </c>
       <c r="E18" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F18" s="1">
         <v>20.0</v>
       </c>
       <c r="G18" s="1">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="H18" s="1">
         <v>5.0</v>
@@ -969,13 +969,13 @@
         <v>25.0</v>
       </c>
       <c r="E19" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" s="1">
         <v>22.0</v>
       </c>
       <c r="G19" s="1">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="H19" s="1">
         <v>5.0</v>
@@ -1004,13 +1004,13 @@
         <v>24.0</v>
       </c>
       <c r="E20" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F20" s="1">
         <v>30.0</v>
       </c>
       <c r="G20" s="1">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="H20" s="1">
         <v>5.0</v>
@@ -1039,13 +1039,13 @@
         <v>27.0</v>
       </c>
       <c r="E21" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F21" s="1">
         <v>24.0</v>
       </c>
       <c r="G21" s="1">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="H21" s="1">
         <v>5.0</v>
@@ -1109,13 +1109,13 @@
         <v>38.0</v>
       </c>
       <c r="E23" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F23" s="1">
         <v>25.0</v>
       </c>
       <c r="G23" s="1">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="H23" s="1">
         <v>6.0</v>
@@ -1144,13 +1144,13 @@
         <v>38.0</v>
       </c>
       <c r="E24" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F24" s="1">
         <v>28.0</v>
       </c>
       <c r="G24" s="1">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="H24" s="1">
         <v>6.0</v>
@@ -1179,13 +1179,13 @@
         <v>28.0</v>
       </c>
       <c r="E25" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F25" s="1">
         <v>32.0</v>
       </c>
       <c r="G25" s="1">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="H25" s="1">
         <v>6.0</v>
@@ -1214,13 +1214,13 @@
         <v>65.0</v>
       </c>
       <c r="E26" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F26" s="2">
         <v>15.0</v>
       </c>
       <c r="G26" s="2">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="H26" s="2">
         <v>7.0</v>
@@ -1270,7 +1270,7 @@
         <v>10.0</v>
       </c>
       <c r="G27" s="1">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="H27" s="1">
         <v>8.0</v>
@@ -1305,7 +1305,7 @@
         <v>10.0</v>
       </c>
       <c r="G28" s="1">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="H28" s="1">
         <v>8.0</v>
@@ -1334,13 +1334,13 @@
         <v>33.0</v>
       </c>
       <c r="E29" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F29" s="1">
         <v>12.0</v>
       </c>
       <c r="G29" s="1">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="H29" s="1">
         <v>8.0</v>
@@ -1369,13 +1369,13 @@
         <v>35.0</v>
       </c>
       <c r="E30" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F30" s="1">
         <v>10.0</v>
       </c>
       <c r="G30" s="1">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="H30" s="1">
         <v>8.0</v>
@@ -1457,10 +1457,10 @@
         <v>11.0</v>
       </c>
       <c r="F32" s="1">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="G32" s="1">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="H32" s="1">
         <v>9.0</v>
@@ -1495,7 +1495,7 @@
         <v>12.0</v>
       </c>
       <c r="G33" s="1">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="H33" s="1">
         <v>9.0</v>
@@ -1530,7 +1530,7 @@
         <v>10.0</v>
       </c>
       <c r="G34" s="1">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="H34" s="1">
         <v>9.0</v>
@@ -1565,7 +1565,7 @@
         <v>15.0</v>
       </c>
       <c r="G35" s="1">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="H35" s="1">
         <v>9.0</v>
@@ -1600,7 +1600,7 @@
         <v>20.0</v>
       </c>
       <c r="G36" s="1">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="H36" s="1">
         <v>9.0</v>
@@ -1635,7 +1635,7 @@
         <v>22.0</v>
       </c>
       <c r="G37" s="1">
-        <v>113.0</v>
+        <v>116.0</v>
       </c>
       <c r="H37" s="1">
         <v>9.0</v>
@@ -1661,7 +1661,7 @@
         <v>1.0</v>
       </c>
       <c r="D38" s="1">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E38" s="1">
         <v>100.0</v>
@@ -1705,7 +1705,7 @@
         <v>20.0</v>
       </c>
       <c r="G39" s="1">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="H39" s="1">
         <v>10.0</v>
@@ -1740,7 +1740,7 @@
         <v>18.0</v>
       </c>
       <c r="G40" s="1">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="H40" s="1">
         <v>10.0</v>
@@ -1775,7 +1775,7 @@
         <v>10.0</v>
       </c>
       <c r="G41" s="1">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="H41" s="1">
         <v>10.0</v>
@@ -1810,7 +1810,7 @@
         <v>10.0</v>
       </c>
       <c r="G42" s="1">
-        <v>92.0</v>
+        <v>98.0</v>
       </c>
       <c r="H42" s="1">
         <v>10.0</v>
@@ -1845,7 +1845,7 @@
         <v>15.0</v>
       </c>
       <c r="G43" s="1">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="H43" s="1">
         <v>11.0</v>
@@ -1880,7 +1880,7 @@
         <v>25.0</v>
       </c>
       <c r="G44" s="1">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="H44" s="1">
         <v>11.0</v>
@@ -1915,7 +1915,7 @@
         <v>20.0</v>
       </c>
       <c r="G45" s="1">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="H45" s="1">
         <v>11.0</v>
@@ -1950,7 +1950,7 @@
         <v>28.0</v>
       </c>
       <c r="G46" s="1">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="H46" s="1">
         <v>11.0</v>
@@ -1976,7 +1976,7 @@
         <v>1.0</v>
       </c>
       <c r="D47" s="1">
-        <v>100.0</v>
+        <v>35.0</v>
       </c>
       <c r="E47" s="1">
         <v>150.0</v>
@@ -2011,7 +2011,7 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="1">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
       <c r="E48" s="1">
         <v>200.0</v>
@@ -2055,7 +2055,7 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="1">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="H49" s="1">
         <v>12.0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="1">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
       <c r="H50" s="1">
         <v>12.0</v>
@@ -2125,7 +2125,7 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="1">
-        <v>155.0</v>
+        <v>158.0</v>
       </c>
       <c r="H51" s="1">
         <v>13.0</v>
@@ -2160,7 +2160,7 @@
         <v>10.0</v>
       </c>
       <c r="G52" s="1">
-        <v>189.0</v>
+        <v>195.0</v>
       </c>
       <c r="H52" s="1">
         <v>13.0</v>
@@ -2192,10 +2192,10 @@
         <v>20.0</v>
       </c>
       <c r="F53" s="2">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="G53" s="2">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="H53" s="2">
         <v>14.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -2043,10 +2043,10 @@
         <v>59</v>
       </c>
       <c r="C49" s="1">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="D49" s="1">
-        <v>115.0</v>
+        <v>100.0</v>
       </c>
       <c r="E49" s="1">
         <v>1.0</v>
@@ -2055,7 +2055,7 @@
         <v>0.0</v>
       </c>
       <c r="G49" s="1">
-        <v>153.0</v>
+        <v>155.0</v>
       </c>
       <c r="H49" s="1">
         <v>12.0</v>
@@ -2078,10 +2078,10 @@
         <v>60</v>
       </c>
       <c r="C50" s="1">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="D50" s="1">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="E50" s="1">
         <v>2.0</v>
@@ -2090,7 +2090,7 @@
         <v>0.0</v>
       </c>
       <c r="G50" s="1">
-        <v>154.0</v>
+        <v>158.0</v>
       </c>
       <c r="H50" s="1">
         <v>12.0</v>
@@ -2113,10 +2113,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="1">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="D51" s="1">
-        <v>123.0</v>
+        <v>102.0</v>
       </c>
       <c r="E51" s="1">
         <v>3.0</v>
@@ -2125,7 +2125,7 @@
         <v>0.0</v>
       </c>
       <c r="G51" s="1">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
       <c r="H51" s="1">
         <v>13.0</v>
@@ -2148,10 +2148,10 @@
         <v>62</v>
       </c>
       <c r="C52" s="1">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D52" s="1">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="E52" s="1">
         <v>17.0</v>
@@ -2160,7 +2160,7 @@
         <v>10.0</v>
       </c>
       <c r="G52" s="1">
-        <v>195.0</v>
+        <v>200.0</v>
       </c>
       <c r="H52" s="1">
         <v>13.0</v>
@@ -2183,10 +2183,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="2">
-        <v>120.0</v>
+        <v>100.0</v>
       </c>
       <c r="D53" s="2">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="E53" s="2">
         <v>20.0</v>
@@ -2195,7 +2195,7 @@
         <v>15.0</v>
       </c>
       <c r="G53" s="2">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
       <c r="H53" s="2">
         <v>14.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -1448,19 +1448,19 @@
         <v>42</v>
       </c>
       <c r="C32" s="1">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="D32" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="E32" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F32" s="1">
         <v>30.0</v>
       </c>
       <c r="G32" s="1">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="H32" s="1">
         <v>9.0</v>
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="C33" s="1">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="D33" s="1">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="E33" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F33" s="1">
         <v>12.0</v>
       </c>
       <c r="G33" s="1">
-        <v>92.0</v>
+        <v>98.0</v>
       </c>
       <c r="H33" s="1">
         <v>9.0</v>
@@ -1518,19 +1518,19 @@
         <v>44</v>
       </c>
       <c r="C34" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="D34" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="E34" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F34" s="1">
         <v>10.0</v>
       </c>
       <c r="G34" s="1">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="H34" s="1">
         <v>9.0</v>
@@ -1553,19 +1553,19 @@
         <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D35" s="1">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
       <c r="E35" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F35" s="1">
         <v>15.0</v>
       </c>
       <c r="G35" s="1">
-        <v>101.0</v>
+        <v>106.0</v>
       </c>
       <c r="H35" s="1">
         <v>9.0</v>
@@ -1588,19 +1588,19 @@
         <v>46</v>
       </c>
       <c r="C36" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="D36" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="E36" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="F36" s="1">
         <v>20.0</v>
       </c>
       <c r="G36" s="1">
-        <v>105.0</v>
+        <v>110.0</v>
       </c>
       <c r="H36" s="1">
         <v>9.0</v>
@@ -1623,19 +1623,19 @@
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="D37" s="1">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="E37" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F37" s="1">
         <v>22.0</v>
       </c>
       <c r="G37" s="1">
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
       <c r="H37" s="1">
         <v>9.0</v>
@@ -1670,7 +1670,7 @@
         <v>90.0</v>
       </c>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H38" s="1">
         <v>10.0</v>
@@ -1693,19 +1693,19 @@
         <v>49</v>
       </c>
       <c r="C39" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="D39" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="E39" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F39" s="1">
         <v>20.0</v>
       </c>
       <c r="G39" s="1">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="H39" s="1">
         <v>10.0</v>
@@ -1728,19 +1728,19 @@
         <v>50</v>
       </c>
       <c r="C40" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="D40" s="1">
-        <v>77.0</v>
+        <v>70.0</v>
       </c>
       <c r="E40" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="F40" s="1">
         <v>18.0</v>
       </c>
       <c r="G40" s="1">
-        <v>128.0</v>
+        <v>132.0</v>
       </c>
       <c r="H40" s="1">
         <v>10.0</v>
@@ -1763,19 +1763,19 @@
         <v>51</v>
       </c>
       <c r="C41" s="1">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="D41" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="E41" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F41" s="1">
         <v>10.0</v>
       </c>
       <c r="G41" s="1">
-        <v>113.0</v>
+        <v>118.0</v>
       </c>
       <c r="H41" s="1">
         <v>10.0</v>
@@ -1798,19 +1798,19 @@
         <v>52</v>
       </c>
       <c r="C42" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="D42" s="1">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="E42" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="F42" s="1">
         <v>10.0</v>
       </c>
       <c r="G42" s="1">
-        <v>98.0</v>
+        <v>104.0</v>
       </c>
       <c r="H42" s="1">
         <v>10.0</v>
@@ -1833,19 +1833,19 @@
         <v>53</v>
       </c>
       <c r="C43" s="1">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="D43" s="1">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="E43" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F43" s="1">
         <v>15.0</v>
       </c>
       <c r="G43" s="1">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="H43" s="1">
         <v>11.0</v>
@@ -1868,19 +1868,19 @@
         <v>54</v>
       </c>
       <c r="C44" s="1">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="D44" s="1">
-        <v>95.0</v>
+        <v>85.0</v>
       </c>
       <c r="E44" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F44" s="1">
         <v>25.0</v>
       </c>
       <c r="G44" s="1">
-        <v>93.0</v>
+        <v>98.0</v>
       </c>
       <c r="H44" s="1">
         <v>11.0</v>
@@ -1903,19 +1903,19 @@
         <v>55</v>
       </c>
       <c r="C45" s="1">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="D45" s="1">
-        <v>104.0</v>
+        <v>100.0</v>
       </c>
       <c r="E45" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F45" s="1">
         <v>20.0</v>
       </c>
       <c r="G45" s="1">
-        <v>121.0</v>
+        <v>126.0</v>
       </c>
       <c r="H45" s="1">
         <v>11.0</v>
@@ -1938,19 +1938,19 @@
         <v>56</v>
       </c>
       <c r="C46" s="1">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="D46" s="1">
-        <v>99.0</v>
+        <v>90.0</v>
       </c>
       <c r="E46" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F46" s="1">
         <v>28.0</v>
       </c>
       <c r="G46" s="1">
-        <v>123.0</v>
+        <v>128.0</v>
       </c>
       <c r="H46" s="1">
         <v>11.0</v>
@@ -1985,7 +1985,7 @@
         <v>95.0</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" s="1">
         <v>12.0</v>
@@ -2020,7 +2020,7 @@
         <v>90.0</v>
       </c>
       <c r="G48" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H48" s="1">
         <v>12.0</v>
@@ -2043,19 +2043,19 @@
         <v>59</v>
       </c>
       <c r="C49" s="1">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
       <c r="D49" s="1">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="E49" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F49" s="1">
         <v>0.0</v>
       </c>
       <c r="G49" s="1">
-        <v>155.0</v>
+        <v>116.0</v>
       </c>
       <c r="H49" s="1">
         <v>12.0</v>
@@ -2078,19 +2078,19 @@
         <v>60</v>
       </c>
       <c r="C50" s="1">
-        <v>80.0</v>
+        <v>75.0</v>
       </c>
       <c r="D50" s="1">
-        <v>101.0</v>
+        <v>90.0</v>
       </c>
       <c r="E50" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F50" s="1">
         <v>0.0</v>
       </c>
       <c r="G50" s="1">
-        <v>158.0</v>
+        <v>168.0</v>
       </c>
       <c r="H50" s="1">
         <v>12.0</v>
@@ -2113,19 +2113,19 @@
         <v>61</v>
       </c>
       <c r="C51" s="1">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="D51" s="1">
-        <v>102.0</v>
+        <v>95.0</v>
       </c>
       <c r="E51" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F51" s="1">
         <v>0.0</v>
       </c>
       <c r="G51" s="1">
-        <v>161.0</v>
+        <v>170.0</v>
       </c>
       <c r="H51" s="1">
         <v>13.0</v>
@@ -2148,19 +2148,19 @@
         <v>62</v>
       </c>
       <c r="C52" s="1">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
       <c r="D52" s="1">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
       <c r="E52" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F52" s="1">
         <v>10.0</v>
       </c>
       <c r="G52" s="1">
-        <v>200.0</v>
+        <v>230.0</v>
       </c>
       <c r="H52" s="1">
         <v>13.0</v>
@@ -2183,10 +2183,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="2">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="D53" s="2">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="E53" s="2">
         <v>20.0</v>
@@ -2195,7 +2195,7 @@
         <v>15.0</v>
       </c>
       <c r="G53" s="2">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
       <c r="H53" s="2">
         <v>14.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -1013,7 +1013,7 @@
         <v>41.0</v>
       </c>
       <c r="H20" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I20" s="1">
         <v>18.0</v>
@@ -1048,7 +1048,7 @@
         <v>47.0</v>
       </c>
       <c r="H21" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I21" s="1">
         <v>19.0</v>
@@ -1083,7 +1083,7 @@
         <v>5.0</v>
       </c>
       <c r="H22" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I22" s="1">
         <v>20.0</v>
@@ -1118,7 +1118,7 @@
         <v>48.0</v>
       </c>
       <c r="H23" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I23" s="1">
         <v>21.0</v>
@@ -1153,7 +1153,7 @@
         <v>49.0</v>
       </c>
       <c r="H24" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I24" s="1">
         <v>22.0</v>
@@ -1188,7 +1188,7 @@
         <v>50.0</v>
       </c>
       <c r="H25" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I25" s="1">
         <v>23.0</v>
@@ -1223,7 +1223,7 @@
         <v>85.0</v>
       </c>
       <c r="H26" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="I26" s="2">
         <v>24.0</v>
@@ -1273,7 +1273,7 @@
         <v>50.0</v>
       </c>
       <c r="H27" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I27" s="1">
         <v>25.0</v>
@@ -1308,7 +1308,7 @@
         <v>59.0</v>
       </c>
       <c r="H28" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I28" s="1">
         <v>26.0</v>
@@ -1343,7 +1343,7 @@
         <v>47.0</v>
       </c>
       <c r="H29" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I29" s="1">
         <v>27.0</v>
@@ -1378,7 +1378,7 @@
         <v>68.0</v>
       </c>
       <c r="H30" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I30" s="1">
         <v>28.0</v>
@@ -1413,7 +1413,7 @@
         <v>56.0</v>
       </c>
       <c r="H31" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="I31" s="4">
         <v>29.0</v>
@@ -1463,7 +1463,7 @@
         <v>75.0</v>
       </c>
       <c r="H32" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I32" s="1">
         <v>30.0</v>
@@ -1498,7 +1498,7 @@
         <v>98.0</v>
       </c>
       <c r="H33" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I33" s="1">
         <v>31.0</v>
@@ -1533,7 +1533,7 @@
         <v>81.0</v>
       </c>
       <c r="H34" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I34" s="1">
         <v>32.0</v>
@@ -1568,7 +1568,7 @@
         <v>106.0</v>
       </c>
       <c r="H35" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I35" s="1">
         <v>33.0</v>
@@ -1603,7 +1603,7 @@
         <v>110.0</v>
       </c>
       <c r="H36" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I36" s="1">
         <v>34.0</v>
@@ -1638,7 +1638,7 @@
         <v>121.0</v>
       </c>
       <c r="H37" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I37" s="1">
         <v>35.0</v>
@@ -1673,7 +1673,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I38" s="1">
         <v>36.0</v>
@@ -1708,7 +1708,7 @@
         <v>121.0</v>
       </c>
       <c r="H39" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I39" s="1">
         <v>37.0</v>
@@ -1743,7 +1743,7 @@
         <v>132.0</v>
       </c>
       <c r="H40" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I40" s="1">
         <v>38.0</v>
@@ -1778,7 +1778,7 @@
         <v>118.0</v>
       </c>
       <c r="H41" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I41" s="1">
         <v>39.0</v>
@@ -1813,7 +1813,7 @@
         <v>104.0</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I42" s="1">
         <v>40.0</v>
@@ -1848,7 +1848,7 @@
         <v>96.0</v>
       </c>
       <c r="H43" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I43" s="1">
         <v>41.0</v>
@@ -1883,7 +1883,7 @@
         <v>98.0</v>
       </c>
       <c r="H44" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I44" s="1">
         <v>42.0</v>
@@ -1918,7 +1918,7 @@
         <v>126.0</v>
       </c>
       <c r="H45" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I45" s="1">
         <v>43.0</v>
@@ -1953,7 +1953,7 @@
         <v>128.0</v>
       </c>
       <c r="H46" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I46" s="1">
         <v>44.0</v>
@@ -1988,7 +1988,7 @@
         <v>2.0</v>
       </c>
       <c r="H47" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I47" s="1">
         <v>45.0</v>
@@ -2023,7 +2023,7 @@
         <v>2.0</v>
       </c>
       <c r="H48" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I48" s="1">
         <v>46.0</v>
@@ -2058,7 +2058,7 @@
         <v>116.0</v>
       </c>
       <c r="H49" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I49" s="1">
         <v>47.0</v>
@@ -2093,7 +2093,7 @@
         <v>168.0</v>
       </c>
       <c r="H50" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="I50" s="1">
         <v>48.0</v>
@@ -2128,7 +2128,7 @@
         <v>170.0</v>
       </c>
       <c r="H51" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I51" s="1">
         <v>49.0</v>
@@ -2163,7 +2163,7 @@
         <v>230.0</v>
       </c>
       <c r="H52" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="I52" s="1">
         <v>50.0</v>
@@ -2198,7 +2198,7 @@
         <v>250.0</v>
       </c>
       <c r="H53" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="I53" s="2">
         <v>51.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -584,7 +584,7 @@
         <v>6.0</v>
       </c>
       <c r="J8" s="1">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
@@ -654,7 +654,7 @@
         <v>8.0</v>
       </c>
       <c r="J10" s="1">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>12</v>
@@ -689,7 +689,7 @@
         <v>9.0</v>
       </c>
       <c r="J11" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>12</v>
@@ -949,7 +949,7 @@
         <v>16.0</v>
       </c>
       <c r="J18" s="1">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>12</v>
@@ -984,7 +984,7 @@
         <v>17.0</v>
       </c>
       <c r="J19" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>12</v>
@@ -1019,7 +1019,7 @@
         <v>18.0</v>
       </c>
       <c r="J20" s="1">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>12</v>
@@ -1054,7 +1054,7 @@
         <v>19.0</v>
       </c>
       <c r="J21" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1124,7 @@
         <v>21.0</v>
       </c>
       <c r="J23" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>12</v>
@@ -1159,7 +1159,7 @@
         <v>22.0</v>
       </c>
       <c r="J24" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>12</v>
@@ -1194,7 +1194,7 @@
         <v>23.0</v>
       </c>
       <c r="J25" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>12</v>
@@ -1279,7 +1279,7 @@
         <v>25.0</v>
       </c>
       <c r="J27" s="1">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>12</v>
@@ -1314,7 +1314,7 @@
         <v>26.0</v>
       </c>
       <c r="J28" s="1">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
@@ -1349,7 +1349,7 @@
         <v>27.0</v>
       </c>
       <c r="J29" s="1">
-        <v>32.0</v>
+        <v>50.0</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>12</v>
@@ -1384,7 +1384,7 @@
         <v>28.0</v>
       </c>
       <c r="J30" s="1">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>29.0</v>
       </c>
       <c r="J31" s="4">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>12</v>
@@ -1469,7 +1469,7 @@
         <v>30.0</v>
       </c>
       <c r="J32" s="1">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>12</v>
@@ -1504,7 +1504,7 @@
         <v>31.0</v>
       </c>
       <c r="J33" s="1">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>32.0</v>
       </c>
       <c r="J34" s="1">
-        <v>29.0</v>
+        <v>50.0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>12</v>
@@ -1574,7 +1574,7 @@
         <v>33.0</v>
       </c>
       <c r="J35" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>12</v>
@@ -1609,7 +1609,7 @@
         <v>34.0</v>
       </c>
       <c r="J36" s="1">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>12</v>
@@ -1644,7 +1644,7 @@
         <v>35.0</v>
       </c>
       <c r="J37" s="1">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>12</v>
@@ -1714,7 +1714,7 @@
         <v>37.0</v>
       </c>
       <c r="J39" s="1">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>12</v>
@@ -1749,7 +1749,7 @@
         <v>38.0</v>
       </c>
       <c r="J40" s="1">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>12</v>
@@ -1784,7 +1784,7 @@
         <v>39.0</v>
       </c>
       <c r="J41" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>12</v>
@@ -1819,7 +1819,7 @@
         <v>40.0</v>
       </c>
       <c r="J42" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>12</v>
@@ -1854,7 +1854,7 @@
         <v>41.0</v>
       </c>
       <c r="J43" s="1">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>12</v>
@@ -1889,7 +1889,7 @@
         <v>42.0</v>
       </c>
       <c r="J44" s="1">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>12</v>
@@ -1924,7 +1924,7 @@
         <v>43.0</v>
       </c>
       <c r="J45" s="1">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>12</v>
@@ -1994,7 +1994,7 @@
         <v>45.0</v>
       </c>
       <c r="J47" s="1">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>12</v>
@@ -2029,7 +2029,7 @@
         <v>46.0</v>
       </c>
       <c r="J48" s="1">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>12</v>
@@ -2064,7 +2064,7 @@
         <v>47.0</v>
       </c>
       <c r="J49" s="1">
-        <v>46.0</v>
+        <v>65.0</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>12</v>
@@ -2099,7 +2099,7 @@
         <v>48.0</v>
       </c>
       <c r="J50" s="1">
-        <v>46.0</v>
+        <v>70.0</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>12</v>
@@ -2134,7 +2134,7 @@
         <v>49.0</v>
       </c>
       <c r="J51" s="1">
-        <v>46.0</v>
+        <v>80.0</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>12</v>
@@ -2157,7 +2157,7 @@
         <v>18.0</v>
       </c>
       <c r="F52" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="G52" s="1">
         <v>230.0</v>
@@ -2169,7 +2169,7 @@
         <v>50.0</v>
       </c>
       <c r="J52" s="1">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>12</v>
@@ -2192,7 +2192,7 @@
         <v>20.0</v>
       </c>
       <c r="F53" s="2">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" s="2">
         <v>250.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyData.xlsx
@@ -2163,7 +2163,7 @@
         <v>230.0</v>
       </c>
       <c r="H52" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="I52" s="1">
         <v>50.0</v>
